--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56acfca16b155fab/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project_WP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="788" documentId="8_{2AAF9347-950C-4E96-8A48-848FFA74A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EDDEE1C-FE7C-4004-833C-81D1DCB63DCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738FD93B-381D-4934-9D6B-BF958EFA49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C402E042-344B-48A1-8E57-2FFA1FB1643C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>Test case</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Phần mềm thoát ra và báo lỗi</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>Login vào lần đầu</t>
@@ -481,9 +478,6 @@
     </r>
   </si>
   <si>
-    <t>Hệ thống crash và thoát ra ngoài</t>
-  </si>
-  <si>
     <t>Phần Exercise, thêm thời gian là chuỗi của 
 bài tập sau khi Search</t>
   </si>
@@ -509,9 +503,6 @@
   <si>
     <t>1. Vào mục Recent Exercise, chọn 1 bài tập bất kì
 2. Chỉnh lại Quantity là một chuỗi như "df","",… hay con số không hợp lệ như -3, -2,….</t>
-  </si>
-  <si>
-    <t>Hệ thống thoát ra ngoài báo lỗi</t>
   </si>
   <si>
     <t>Add Frequent Food vào data Food của ngày hiện tại với dữ liệu là invalid</t>
@@ -772,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,14 +799,6 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -979,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -990,9 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -1014,10 +994,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1025,30 +1005,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,12 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1075,20 +1043,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,10 +1085,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1430,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E32A4-B6AD-41B1-990F-7CE870FB6FFC}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:G42"/>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="103" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,202 +1417,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="16" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" ht="37" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="39" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="30" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" ht="46" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="32" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="41" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="27" t="s">
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" ht="47" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="43" t="s">
+    <row r="6" spans="1:21" s="7" customFormat="1" ht="47" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1659,174 +1635,174 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
+    <row r="8" spans="1:21" s="16" customFormat="1" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="53.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
       <c r="U10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="78.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="74.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="74.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="7" t="s">
-        <v>20</v>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
-        <v>32</v>
+      <c r="A13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1850,107 +1826,107 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="72.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="21" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="106" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1974,107 +1950,107 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="78.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="106" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="106" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23" t="s">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
       <c r="U20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
-        <v>84</v>
+      <c r="A21" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2098,74 +2074,74 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="21" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
       <c r="U22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14" t="s">
-        <v>85</v>
+      <c r="A24" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2189,74 +2165,74 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
       <c r="U25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="23" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="7" t="s">
-        <v>20</v>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
-        <v>86</v>
+      <c r="A27" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2280,74 +2256,74 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="23" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="21" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
       <c r="U28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
-        <v>87</v>
+      <c r="A30" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2371,74 +2347,74 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="21" t="s">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
       <c r="U31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="88.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
       <c r="U32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="14" t="s">
-        <v>88</v>
+      <c r="A33" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2462,74 +2438,74 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="18" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="21" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
       <c r="U34" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="87.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2553,107 +2529,107 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" ht="78.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="67" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="21" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="18" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="67" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="23" t="s">
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="84" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="21" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="18" t="s">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="84" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="23" t="s">
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2677,74 +2653,74 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="62" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="18" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="62.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="21" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="62.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19" t="s">
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2768,67 +2744,67 @@
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="18" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="45.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="23" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="23" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="45.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2836,17 +2812,118 @@
     <row r="52" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L20:O20"/>
     <mergeCell ref="P15:T15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:G16"/>
@@ -2871,131 +2948,30 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:T45"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:O37"/>
     <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:T12"/>
     <mergeCell ref="L34:O34"/>
     <mergeCell ref="P34:T34"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:T32"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:O35"/>
     <mergeCell ref="P35:T35"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:T29"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:T41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
